--- a/FrameworkAutomation/src/test/resources/testdata/excels/Adactin Test Data.xlsx
+++ b/FrameworkAutomation/src/test/resources/testdata/excels/Adactin Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02LiveTechWS\FrameworkAutomation\src\test\resources\testdata\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF17FCA4-4B84-4BF3-9AE1-78CAF655644B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46AD21B9-C9F7-4950-907E-AA6CDF413651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{ECA7341F-7CE3-4EA7-B2BF-C9C26B540FCF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -427,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F60D7BE3-F58C-48C7-9CF8-78F7EA9FAAFB}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.4" x14ac:dyDescent="0.45"/>
@@ -496,50 +496,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
